--- a/Algorithms List.xlsx
+++ b/Algorithms List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\CG ALGOS GIT\CG-Algorithms-Easy-Implementation-in-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86A9F5-ED1B-4CD1-9325-F9C51386A462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3965616-4725-4856-9DED-FEC05800A03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="90" windowWidth="6000" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +94,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,10 +102,34 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,10 +152,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,36 +455,36 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -475,17 +514,17 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -500,12 +539,12 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Algorithms List.xlsx
+++ b/Algorithms List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\CG ALGOS GIT\CG-Algorithms-Easy-Implementation-in-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3965616-4725-4856-9DED-FEC05800A03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B591C-AB9C-4615-8DEF-DFEFF1F0A0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="90" windowWidth="6000" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12075" yWindow="90" windowWidth="8415" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>Liang Barsky</t>
   </si>
   <si>
-    <t>Suther Hodgeman</t>
-  </si>
-  <si>
     <t>Weiler Atherton</t>
+  </si>
+  <si>
+    <t>Sutherland Hodgeman</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -544,13 +544,13 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithms List.xlsx
+++ b/Algorithms List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\CG ALGOS GIT\CG-Algorithms-Easy-Implementation-in-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77B591C-AB9C-4615-8DEF-DFEFF1F0A0C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC2AE05-84C1-4996-A452-89DC9116DF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12075" yWindow="90" windowWidth="8415" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -170,6 +176,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -455,7 +464,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,7 +528,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Algorithms List.xlsx
+++ b/Algorithms List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratik\Desktop\CG ALGOS GIT\CG-Algorithms-Easy-Implementation-in-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC2AE05-84C1-4996-A452-89DC9116DF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DF8C20-03BE-4A52-8AC3-91A8834D106C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12075" yWindow="90" windowWidth="8415" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="60" windowWidth="9090" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +122,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF002060"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
@@ -158,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -176,9 +170,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -464,7 +455,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -498,7 +489,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -528,7 +519,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -543,7 +534,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
